--- a/策划文档/角色_怪物_刷新点.xlsx
+++ b/策划文档/角色_怪物_刷新点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t xml:space="preserve">角色 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,20 +542,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="2" max="4" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,25 +563,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -573,175 +595,243 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>8</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10002</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -754,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/角色_怪物_刷新点.xlsx
+++ b/策划文档/角色_怪物_刷新点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,36 +894,99 @@
       <c r="B3">
         <v>200101</v>
       </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>200102</v>
       </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>200103</v>
       </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>200104</v>
       </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>200105</v>
       </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>200106</v>
       </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>200107</v>
       </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -932,157 +995,418 @@
       <c r="B11">
         <v>200111</v>
       </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>200112</v>
       </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>200113</v>
       </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>200114</v>
       </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>200115</v>
       </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>200116</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>200117</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
         <v>200201</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>200202</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>200203</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>200204</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>400</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>200205</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>200206</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24">
+        <v>600</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>200207</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27">
         <v>200211</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>200212</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>200213</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29">
+        <v>300</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>200214</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>200215</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>200216</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <v>600</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>200217</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <v>700</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35">
         <v>200301</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>200302</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>200303</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37">
+        <v>300</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>200304</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>200305</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>200306</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40">
+        <v>600</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>200307</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <v>700</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43">
         <v>20040</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/角色_怪物_刷新点.xlsx
+++ b/策划文档/角色_怪物_刷新点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,10 +632,16 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -646,10 +652,16 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>250</v>
+      </c>
+      <c r="F4" s="1">
+        <v>70</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -660,10 +672,16 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>350</v>
+      </c>
+      <c r="F5" s="1">
+        <v>110</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>800</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -674,10 +692,16 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>450</v>
+      </c>
+      <c r="F6" s="1">
+        <v>150</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>1600</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -688,10 +712,16 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>550</v>
+      </c>
+      <c r="F7" s="1">
+        <v>190</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>3200</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -702,10 +732,16 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>650</v>
+      </c>
+      <c r="F8" s="1">
+        <v>230</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>6400</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -716,8 +752,12 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>750</v>
+      </c>
+      <c r="F9" s="1">
+        <v>270</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -844,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,13 +1036,13 @@
         <v>200111</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1010,13 +1050,13 @@
         <v>200112</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1024,13 +1064,13 @@
         <v>200113</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1038,13 +1078,13 @@
         <v>200114</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1052,13 +1092,13 @@
         <v>200115</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1066,13 +1106,13 @@
         <v>200116</v>
       </c>
       <c r="C16">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1080,13 +1120,13 @@
         <v>200117</v>
       </c>
       <c r="C17">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1097,7 +1137,7 @@
         <v>200201</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -1111,7 +1151,7 @@
         <v>200202</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1125,7 +1165,7 @@
         <v>200203</v>
       </c>
       <c r="C21">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1139,7 +1179,7 @@
         <v>200204</v>
       </c>
       <c r="C22">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="D22">
         <v>40</v>
@@ -1153,7 +1193,7 @@
         <v>200205</v>
       </c>
       <c r="C23">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -1167,7 +1207,7 @@
         <v>200206</v>
       </c>
       <c r="C24">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -1181,7 +1221,7 @@
         <v>200207</v>
       </c>
       <c r="C25">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="D25">
         <v>70</v>
@@ -1201,10 +1241,10 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1215,10 +1255,10 @@
         <v>200</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1229,10 +1269,10 @@
         <v>300</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1243,10 +1283,10 @@
         <v>400</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1257,10 +1297,10 @@
         <v>500</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1271,10 +1311,10 @@
         <v>600</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1285,10 +1325,10 @@
         <v>700</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1305,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1319,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1333,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1347,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1361,7 +1401,7 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1375,7 +1415,7 @@
         <v>60</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1389,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1403,10 +1443,10 @@
         <v>10000</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/角色_怪物_刷新点.xlsx
+++ b/策划文档/角色_怪物_刷新点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19695" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t xml:space="preserve">角色 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,102 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200101*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200102*2,200202*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200112*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200113*1,200203*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200104*3,200213*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200204*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200304*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200304*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200305*2,200106*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200305*2,200106*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200305*3,200106*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200305,200106*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200306*3,200206*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200306*1,200206*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200306*3,200206*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200306*2,200206*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200107*1.200307*2,200207*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200107*1.200307*2,200207*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200117*1.200307*2,200217*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200117*2.200307*2,200217*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200117*2.200307*2,200217*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200117*3.200307*2,200217*4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -884,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1459,13 +1555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1497,227 +1593,347 @@
       <c r="B3">
         <v>301</v>
       </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>302</v>
       </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>303</v>
       </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>304</v>
       </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>302</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>303</v>
       </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>304</v>
       </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>302</v>
       </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>303</v>
       </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>301</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>303</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>304</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>302</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>303</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>304</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>301</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>302</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>303</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>304</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B33">
         <v>301</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>302</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>303</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>304</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B38">
         <v>301</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>302</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>303</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="B43">
         <v>301</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>302</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>303</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>304</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B48">
         <v>301</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>302</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>303</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>304</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
